--- a/web-platform_22_02_dev/data/just_buh.xlsx
+++ b/web-platform_22_02_dev/data/just_buh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogdan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Projects\python-jsx-smart-pmp-app\web-platform_22_02_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0063EE-B415-430F-A8D2-27F285C4D686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084BF05-138E-4C9F-9CBC-2B4922C6BC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
